--- a/proyecto.xlsx
+++ b/proyecto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Universidad\5 semestre\Desarrollo de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Historia de Usuario</t>
   </si>
@@ -35,9 +35,6 @@
     <t>menu</t>
   </si>
   <si>
-    <t>tiempo</t>
-  </si>
-  <si>
     <t>resultado</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>bandas</t>
   </si>
   <si>
-    <t>dificultad</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
     <t>spring 4</t>
   </si>
   <si>
-    <t>spring 5</t>
-  </si>
-  <si>
-    <t>spring 6</t>
-  </si>
-  <si>
     <t>Tablero de Puntuacón</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
   </si>
   <si>
     <t>Fondo de linea de producción</t>
-  </si>
-  <si>
-    <t>Icono de basura</t>
   </si>
   <si>
     <t>Condicion de inicio</t>
@@ -257,7 +242,7 @@
             <c:strRef>
               <c:f>Hoja1!$B$3:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>spring 0</c:v>
                 </c:pt>
@@ -273,12 +258,6 @@
                 <c:pt idx="4">
                   <c:v>spring 4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>spring 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>spring 6</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -289,25 +268,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,7 +1359,7 @@
   <dimension ref="A3:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,35 +1367,29 @@
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1431,44 +1404,32 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1483,44 +1444,32 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1535,18 +1484,12 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1555,76 +1498,58 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1633,24 +1558,18 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1659,260 +1578,146 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <f>SUM(B4:B21)</f>
-        <v>37</v>
+        <f>SUM(B4:B18)</f>
+        <v>30</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:H27" si="0">SUM(C4:C21)</f>
-        <v>32</v>
+        <f>SUM(C4:C18)</f>
+        <v>22</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(D4:D18)</f>
+        <v>16</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(E4:E18)</f>
+        <v>14</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(F4:F18)</f>
+        <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" ref="G27:H27" si="0">SUM(G4:G21)</f>
+        <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
